--- a/assets/GPIOS.xlsx
+++ b/assets/GPIOS.xlsx
@@ -8840,23 +8840,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -8867,11 +8850,11 @@
   </sheetPr>
   <dimension ref="A1:J385"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="1:1048576"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A279" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I279" activeCellId="0" sqref="G:I"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="33.35"/>
@@ -8879,9 +8862,9 @@
     <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="4" min="4" style="0" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="5" min="5" style="0" width="9.79"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="6" min="6" style="0" width="10.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="37.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="95.92"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="10" style="0" width="5.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1021" style="0" width="10.5"/>
   </cols>
@@ -20813,14 +20796,16 @@
   </sheetPr>
   <dimension ref="A1:M666"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="1:1048576"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A417" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I417" activeCellId="0" sqref="G:I"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="6" min="1" style="0" width="10.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="40.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="95.92"/>
     <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="13" min="10" style="0" width="10.5"/>
   </cols>
   <sheetData>
